--- a/examples/sources/data/unsolved/to_schedule/2019-03-28.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-03-28.xlsx
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -6716,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="N133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O133" s="2">
         <v>43552</v>
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="N141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O141" s="2">
         <v>43552</v>
@@ -7217,7 +7217,7 @@
         <v>1</v>
       </c>
       <c r="N145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O145" s="2">
         <v>43552</v>
@@ -7340,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="N148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O148" s="2">
         <v>43552</v>
@@ -7378,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="M149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N149">
         <v>1</v>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N150">
         <v>1</v>
@@ -8020,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N164">
         <v>1</v>
@@ -8879,7 +8879,7 @@
         <v>1</v>
       </c>
       <c r="N184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O184" s="2">
         <v>43552</v>
